--- a/finally_ready_station_file.xlsx
+++ b/finally_ready_station_file.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="3863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="3865">
   <si>
     <t>name</t>
   </si>
@@ -11606,6 +11606,12 @@
   </si>
   <si>
     <t>ЯХРОМА</t>
+  </si>
+  <si>
+    <t>Сергиев Посад</t>
+  </si>
+  <si>
+    <t>Гаврилов Посад</t>
   </si>
 </sst>
 </file>
@@ -11939,8 +11945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3727"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1194" workbookViewId="0">
-      <selection activeCell="J1213" sqref="J1213"/>
+    <sheetView tabSelected="1" topLeftCell="A1232" workbookViewId="0">
+      <selection activeCell="A1247" sqref="A1247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25741,7 +25747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1201" spans="1:4">
+    <row r="1201" spans="1:6">
       <c r="A1201" t="s">
         <v>2172</v>
       </c>
@@ -25752,7 +25758,7 @@
         <v>63.707900000000002</v>
       </c>
     </row>
-    <row r="1202" spans="1:4">
+    <row r="1202" spans="1:6">
       <c r="A1202" t="s">
         <v>2008</v>
       </c>
@@ -25766,7 +25772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1203" spans="1:4">
+    <row r="1203" spans="1:6">
       <c r="A1203" t="s">
         <v>2014</v>
       </c>
@@ -25777,7 +25783,7 @@
         <v>55.717500000000001</v>
       </c>
     </row>
-    <row r="1204" spans="1:4">
+    <row r="1204" spans="1:6">
       <c r="A1204" t="s">
         <v>1709</v>
       </c>
@@ -25788,7 +25794,7 @@
         <v>51.306100000000001</v>
       </c>
     </row>
-    <row r="1205" spans="1:4">
+    <row r="1205" spans="1:6">
       <c r="A1205" t="s">
         <v>1397</v>
       </c>
@@ -25799,7 +25805,7 @@
         <v>55.700099999999999</v>
       </c>
     </row>
-    <row r="1206" spans="1:4">
+    <row r="1206" spans="1:6">
       <c r="A1206" t="s">
         <v>1397</v>
       </c>
@@ -25810,7 +25816,7 @@
         <v>55.700099999999999</v>
       </c>
     </row>
-    <row r="1207" spans="1:4">
+    <row r="1207" spans="1:6">
       <c r="A1207" t="s">
         <v>308</v>
       </c>
@@ -25821,7 +25827,7 @@
         <v>55.592599999999997</v>
       </c>
     </row>
-    <row r="1208" spans="1:4">
+    <row r="1208" spans="1:6">
       <c r="A1208" t="s">
         <v>3316</v>
       </c>
@@ -25832,7 +25838,7 @@
         <v>44.837400000000002</v>
       </c>
     </row>
-    <row r="1209" spans="1:4">
+    <row r="1209" spans="1:6">
       <c r="A1209" t="s">
         <v>2002</v>
       </c>
@@ -25846,7 +25852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1210" spans="1:4">
+    <row r="1210" spans="1:6">
       <c r="A1210" t="s">
         <v>2787</v>
       </c>
@@ -25857,7 +25863,7 @@
         <v>55.843200000000003</v>
       </c>
     </row>
-    <row r="1211" spans="1:4">
+    <row r="1211" spans="1:6">
       <c r="A1211" t="s">
         <v>2787</v>
       </c>
@@ -25868,7 +25874,7 @@
         <v>55.843200000000003</v>
       </c>
     </row>
-    <row r="1212" spans="1:4">
+    <row r="1212" spans="1:6">
       <c r="A1212" t="s">
         <v>2009</v>
       </c>
@@ -25881,8 +25887,14 @@
       <c r="D1212" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="1213" spans="1:4">
+      <c r="E1212" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F1212">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6">
       <c r="A1213" t="s">
         <v>2005</v>
       </c>
@@ -25896,7 +25908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1214" spans="1:4">
+    <row r="1214" spans="1:6">
       <c r="A1214" t="s">
         <v>2007</v>
       </c>
@@ -25910,7 +25922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1215" spans="1:4">
+    <row r="1215" spans="1:6">
       <c r="A1215" t="s">
         <v>2734</v>
       </c>
@@ -25921,7 +25933,7 @@
         <v>54.363399999999999</v>
       </c>
     </row>
-    <row r="1216" spans="1:4">
+    <row r="1216" spans="1:6">
       <c r="A1216" t="s">
         <v>3571</v>
       </c>
@@ -25932,7 +25944,7 @@
         <v>55.618299999999998</v>
       </c>
     </row>
-    <row r="1217" spans="1:6">
+    <row r="1217" spans="1:3">
       <c r="A1217" t="s">
         <v>1998</v>
       </c>
@@ -25942,14 +25954,8 @@
       <c r="C1217">
         <v>55.785600000000002</v>
       </c>
-      <c r="E1217" t="s">
-        <v>1999</v>
-      </c>
-      <c r="F1217">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:6">
+    </row>
+    <row r="1218" spans="1:3">
       <c r="A1218" t="s">
         <v>462</v>
       </c>
@@ -25960,7 +25966,7 @@
         <v>45.106200000000001</v>
       </c>
     </row>
-    <row r="1219" spans="1:6">
+    <row r="1219" spans="1:3">
       <c r="A1219" t="s">
         <v>1533</v>
       </c>
@@ -25971,7 +25977,7 @@
         <v>52.783900000000003</v>
       </c>
     </row>
-    <row r="1220" spans="1:6">
+    <row r="1220" spans="1:3">
       <c r="A1220" t="s">
         <v>1796</v>
       </c>
@@ -25982,7 +25988,7 @@
         <v>55.862699999999997</v>
       </c>
     </row>
-    <row r="1221" spans="1:6">
+    <row r="1221" spans="1:3">
       <c r="A1221" t="s">
         <v>3859</v>
       </c>
@@ -25993,7 +25999,7 @@
         <v>54.478900000000003</v>
       </c>
     </row>
-    <row r="1222" spans="1:6">
+    <row r="1222" spans="1:3">
       <c r="A1222" t="s">
         <v>2015</v>
       </c>
@@ -26004,7 +26010,7 @@
         <v>55.7821</v>
       </c>
     </row>
-    <row r="1223" spans="1:6">
+    <row r="1223" spans="1:3">
       <c r="A1223" t="s">
         <v>2013</v>
       </c>
@@ -26015,7 +26021,7 @@
         <v>55.745399999999997</v>
       </c>
     </row>
-    <row r="1224" spans="1:6">
+    <row r="1224" spans="1:3">
       <c r="A1224" t="s">
         <v>341</v>
       </c>
@@ -26026,7 +26032,7 @@
         <v>55.725700000000003</v>
       </c>
     </row>
-    <row r="1225" spans="1:6">
+    <row r="1225" spans="1:3">
       <c r="A1225" t="s">
         <v>341</v>
       </c>
@@ -26037,7 +26043,7 @@
         <v>55.725700000000003</v>
       </c>
     </row>
-    <row r="1226" spans="1:6">
+    <row r="1226" spans="1:3">
       <c r="A1226" t="s">
         <v>676</v>
       </c>
@@ -26048,7 +26054,7 @@
         <v>44.789499999999997</v>
       </c>
     </row>
-    <row r="1227" spans="1:6">
+    <row r="1227" spans="1:3">
       <c r="A1227" t="s">
         <v>677</v>
       </c>
@@ -26059,7 +26065,7 @@
         <v>44.789499999999997</v>
       </c>
     </row>
-    <row r="1228" spans="1:6">
+    <row r="1228" spans="1:3">
       <c r="A1228" t="s">
         <v>1568</v>
       </c>
@@ -26070,7 +26076,7 @@
         <v>54.1828</v>
       </c>
     </row>
-    <row r="1229" spans="1:6">
+    <row r="1229" spans="1:3">
       <c r="A1229" t="s">
         <v>3402</v>
       </c>
@@ -26081,7 +26087,7 @@
         <v>55.7179</v>
       </c>
     </row>
-    <row r="1230" spans="1:6">
+    <row r="1230" spans="1:3">
       <c r="A1230" t="s">
         <v>3402</v>
       </c>
@@ -26092,7 +26098,7 @@
         <v>55.7179</v>
       </c>
     </row>
-    <row r="1231" spans="1:6">
+    <row r="1231" spans="1:3">
       <c r="A1231" t="s">
         <v>2470</v>
       </c>
@@ -26103,7 +26109,7 @@
         <v>55.920299999999997</v>
       </c>
     </row>
-    <row r="1232" spans="1:6">
+    <row r="1232" spans="1:3">
       <c r="A1232" t="s">
         <v>266</v>
       </c>
@@ -27391,6 +27397,12 @@
       <c r="C1343">
         <v>56.302</v>
       </c>
+      <c r="E1343" t="s">
+        <v>3863</v>
+      </c>
+      <c r="F1343">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1344" spans="1:6">
       <c r="A1344" t="s">
@@ -28704,7 +28716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1457" spans="1:4">
+    <row r="1457" spans="1:6">
       <c r="A1457" t="s">
         <v>59</v>
       </c>
@@ -28717,8 +28729,14 @@
       <c r="D1457" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="1458" spans="1:4">
+      <c r="E1457" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6">
       <c r="A1458" t="s">
         <v>487</v>
       </c>
@@ -28729,7 +28747,7 @@
         <v>45.462400000000002</v>
       </c>
     </row>
-    <row r="1459" spans="1:4">
+    <row r="1459" spans="1:6">
       <c r="A1459" t="s">
         <v>1833</v>
       </c>
@@ -28740,7 +28758,7 @@
         <v>53.930700000000002</v>
       </c>
     </row>
-    <row r="1460" spans="1:4">
+    <row r="1460" spans="1:6">
       <c r="A1460" t="s">
         <v>3219</v>
       </c>
@@ -28751,7 +28769,7 @@
         <v>52.712000000000003</v>
       </c>
     </row>
-    <row r="1461" spans="1:4">
+    <row r="1461" spans="1:6">
       <c r="A1461" t="s">
         <v>2964</v>
       </c>
@@ -28762,7 +28780,7 @@
         <v>54.459299999999999</v>
       </c>
     </row>
-    <row r="1462" spans="1:4">
+    <row r="1462" spans="1:6">
       <c r="A1462" t="s">
         <v>3560</v>
       </c>
@@ -28773,7 +28791,7 @@
         <v>51.5852</v>
       </c>
     </row>
-    <row r="1463" spans="1:4">
+    <row r="1463" spans="1:6">
       <c r="A1463" t="s">
         <v>2770</v>
       </c>
@@ -28784,7 +28802,7 @@
         <v>45.755099999999999</v>
       </c>
     </row>
-    <row r="1464" spans="1:4">
+    <row r="1464" spans="1:6">
       <c r="A1464" t="s">
         <v>1826</v>
       </c>
@@ -28795,7 +28813,7 @@
         <v>52.860399999999998</v>
       </c>
     </row>
-    <row r="1465" spans="1:4">
+    <row r="1465" spans="1:6">
       <c r="A1465" t="s">
         <v>2434</v>
       </c>
@@ -28806,7 +28824,7 @@
         <v>55.2149</v>
       </c>
     </row>
-    <row r="1466" spans="1:4">
+    <row r="1466" spans="1:6">
       <c r="A1466" t="s">
         <v>474</v>
       </c>
@@ -28820,7 +28838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1467" spans="1:4">
+    <row r="1467" spans="1:6">
       <c r="A1467" t="s">
         <v>3788</v>
       </c>
@@ -28831,7 +28849,7 @@
         <v>55.883299999999998</v>
       </c>
     </row>
-    <row r="1468" spans="1:4">
+    <row r="1468" spans="1:6">
       <c r="A1468" t="s">
         <v>277</v>
       </c>
@@ -28842,7 +28860,7 @@
         <v>56.267000000000003</v>
       </c>
     </row>
-    <row r="1469" spans="1:4">
+    <row r="1469" spans="1:6">
       <c r="A1469" t="s">
         <v>725</v>
       </c>
@@ -28853,7 +28871,7 @@
         <v>55.085999999999999</v>
       </c>
     </row>
-    <row r="1470" spans="1:4">
+    <row r="1470" spans="1:6">
       <c r="A1470" t="s">
         <v>289</v>
       </c>
@@ -28864,7 +28882,7 @@
         <v>55.410200000000003</v>
       </c>
     </row>
-    <row r="1471" spans="1:4">
+    <row r="1471" spans="1:6">
       <c r="A1471" t="s">
         <v>3030</v>
       </c>
@@ -28875,7 +28893,7 @@
         <v>52.618299999999998</v>
       </c>
     </row>
-    <row r="1472" spans="1:4">
+    <row r="1472" spans="1:6">
       <c r="A1472" t="s">
         <v>3553</v>
       </c>
@@ -32946,6 +32964,12 @@
       <c r="C1818">
         <v>56.566499999999998</v>
       </c>
+      <c r="E1818" t="s">
+        <v>3864</v>
+      </c>
+      <c r="F1818">
+        <v>1434</v>
+      </c>
     </row>
     <row r="1819" spans="1:6">
       <c r="A1819" t="s">
@@ -33201,7 +33225,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="1841" spans="1:6">
+    <row r="1841" spans="1:3">
       <c r="A1841" t="s">
         <v>2409</v>
       </c>
@@ -33212,7 +33236,7 @@
         <v>54.340200000000003</v>
       </c>
     </row>
-    <row r="1842" spans="1:6">
+    <row r="1842" spans="1:3">
       <c r="A1842" t="s">
         <v>1991</v>
       </c>
@@ -33223,7 +33247,7 @@
         <v>59.619399999999999</v>
       </c>
     </row>
-    <row r="1843" spans="1:6">
+    <row r="1843" spans="1:3">
       <c r="A1843" t="s">
         <v>1034</v>
       </c>
@@ -33234,7 +33258,7 @@
         <v>48.046399999999998</v>
       </c>
     </row>
-    <row r="1844" spans="1:6">
+    <row r="1844" spans="1:3">
       <c r="A1844" t="s">
         <v>1772</v>
       </c>
@@ -33245,7 +33269,7 @@
         <v>48.155799999999999</v>
       </c>
     </row>
-    <row r="1845" spans="1:6">
+    <row r="1845" spans="1:3">
       <c r="A1845" t="s">
         <v>3300</v>
       </c>
@@ -33256,7 +33280,7 @@
         <v>51.584800000000001</v>
       </c>
     </row>
-    <row r="1846" spans="1:6">
+    <row r="1846" spans="1:3">
       <c r="A1846" t="s">
         <v>1214</v>
       </c>
@@ -33267,7 +33291,7 @@
         <v>47.6648</v>
       </c>
     </row>
-    <row r="1847" spans="1:6">
+    <row r="1847" spans="1:3">
       <c r="A1847" t="s">
         <v>734</v>
       </c>
@@ -33278,7 +33302,7 @@
         <v>47.817399999999999</v>
       </c>
     </row>
-    <row r="1848" spans="1:6">
+    <row r="1848" spans="1:3">
       <c r="A1848" t="s">
         <v>3708</v>
       </c>
@@ -33289,7 +33313,7 @@
         <v>47.7271</v>
       </c>
     </row>
-    <row r="1849" spans="1:6">
+    <row r="1849" spans="1:3">
       <c r="A1849" t="s">
         <v>3757</v>
       </c>
@@ -33300,7 +33324,7 @@
         <v>45.779499999999999</v>
       </c>
     </row>
-    <row r="1850" spans="1:6">
+    <row r="1850" spans="1:3">
       <c r="A1850" t="s">
         <v>1043</v>
       </c>
@@ -33311,7 +33335,7 @@
         <v>61.577800000000003</v>
       </c>
     </row>
-    <row r="1851" spans="1:6">
+    <row r="1851" spans="1:3">
       <c r="A1851" t="s">
         <v>3530</v>
       </c>
@@ -33322,7 +33346,7 @@
         <v>59.947499999999998</v>
       </c>
     </row>
-    <row r="1852" spans="1:6">
+    <row r="1852" spans="1:3">
       <c r="A1852" t="s">
         <v>2665</v>
       </c>
@@ -33333,7 +33357,7 @@
         <v>60.130800000000001</v>
       </c>
     </row>
-    <row r="1853" spans="1:6">
+    <row r="1853" spans="1:3">
       <c r="A1853" t="s">
         <v>2243</v>
       </c>
@@ -33344,7 +33368,7 @@
         <v>61.662199999999999</v>
       </c>
     </row>
-    <row r="1854" spans="1:6">
+    <row r="1854" spans="1:3">
       <c r="A1854" t="s">
         <v>3731</v>
       </c>
@@ -33355,7 +33379,7 @@
         <v>61.806199999999997</v>
       </c>
     </row>
-    <row r="1855" spans="1:6">
+    <row r="1855" spans="1:3">
       <c r="A1855" t="s">
         <v>56</v>
       </c>
@@ -33365,14 +33389,8 @@
       <c r="C1855">
         <v>53.4756</v>
       </c>
-      <c r="E1855" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1855" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:6">
+    </row>
+    <row r="1856" spans="1:3">
       <c r="A1856" t="s">
         <v>2994</v>
       </c>
@@ -35412,7 +35430,7 @@
         <v>48.194200000000002</v>
       </c>
     </row>
-    <row r="2033" spans="1:3">
+    <row r="2033" spans="1:6">
       <c r="A2033" t="s">
         <v>1087</v>
       </c>
@@ -35422,8 +35440,14 @@
       <c r="C2033">
         <v>57.017800000000001</v>
       </c>
-    </row>
-    <row r="2034" spans="1:3">
+      <c r="E2033" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F2033">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:6">
       <c r="A2034" t="s">
         <v>1487</v>
       </c>
@@ -35434,7 +35458,7 @@
         <v>57.758899999999997</v>
       </c>
     </row>
-    <row r="2035" spans="1:3">
+    <row r="2035" spans="1:6">
       <c r="A2035" t="s">
         <v>1190</v>
       </c>
@@ -35445,7 +35469,7 @@
         <v>50.421599999999998</v>
       </c>
     </row>
-    <row r="2036" spans="1:3">
+    <row r="2036" spans="1:6">
       <c r="A2036" t="s">
         <v>496</v>
       </c>
@@ -35456,7 +35480,7 @@
         <v>53.7087</v>
       </c>
     </row>
-    <row r="2037" spans="1:3">
+    <row r="2037" spans="1:6">
       <c r="A2037" t="s">
         <v>12</v>
       </c>
@@ -35467,7 +35491,7 @@
         <v>51.1845</v>
       </c>
     </row>
-    <row r="2038" spans="1:3">
+    <row r="2038" spans="1:6">
       <c r="A2038" t="s">
         <v>2836</v>
       </c>
@@ -35478,7 +35502,7 @@
         <v>52.830399999999997</v>
       </c>
     </row>
-    <row r="2039" spans="1:3">
+    <row r="2039" spans="1:6">
       <c r="A2039" t="s">
         <v>3575</v>
       </c>
@@ -35489,7 +35513,7 @@
         <v>46.539499999999997</v>
       </c>
     </row>
-    <row r="2040" spans="1:3">
+    <row r="2040" spans="1:6">
       <c r="A2040" t="s">
         <v>1088</v>
       </c>
@@ -35500,7 +35524,7 @@
         <v>57.007399999999997</v>
       </c>
     </row>
-    <row r="2041" spans="1:3">
+    <row r="2041" spans="1:6">
       <c r="A2041" t="s">
         <v>760</v>
       </c>
@@ -35511,7 +35535,7 @@
         <v>45.447600000000001</v>
       </c>
     </row>
-    <row r="2042" spans="1:3">
+    <row r="2042" spans="1:6">
       <c r="A2042" t="s">
         <v>2933</v>
       </c>
@@ -35522,7 +35546,7 @@
         <v>58.345399999999998</v>
       </c>
     </row>
-    <row r="2043" spans="1:3">
+    <row r="2043" spans="1:6">
       <c r="A2043" t="s">
         <v>618</v>
       </c>
@@ -35533,7 +35557,7 @@
         <v>58.8078</v>
       </c>
     </row>
-    <row r="2044" spans="1:3">
+    <row r="2044" spans="1:6">
       <c r="A2044" t="s">
         <v>1698</v>
       </c>
@@ -35544,7 +35568,7 @@
         <v>53.284199999999998</v>
       </c>
     </row>
-    <row r="2045" spans="1:3">
+    <row r="2045" spans="1:6">
       <c r="A2045" t="s">
         <v>732</v>
       </c>
@@ -35555,7 +35579,7 @@
         <v>56.983199999999997</v>
       </c>
     </row>
-    <row r="2046" spans="1:3">
+    <row r="2046" spans="1:6">
       <c r="A2046" t="s">
         <v>2952</v>
       </c>
@@ -35566,7 +35590,7 @@
         <v>57.786900000000003</v>
       </c>
     </row>
-    <row r="2047" spans="1:3">
+    <row r="2047" spans="1:6">
       <c r="A2047" t="s">
         <v>1068</v>
       </c>
@@ -35577,7 +35601,7 @@
         <v>55.507300000000001</v>
       </c>
     </row>
-    <row r="2048" spans="1:3">
+    <row r="2048" spans="1:6">
       <c r="A2048" t="s">
         <v>2182</v>
       </c>
@@ -53072,7 +53096,7 @@
         <v>52.410899999999998</v>
       </c>
     </row>
-    <row r="3585" spans="1:6">
+    <row r="3585" spans="1:3">
       <c r="A3585" t="s">
         <v>3600</v>
       </c>
@@ -53083,7 +53107,7 @@
         <v>54.9846</v>
       </c>
     </row>
-    <row r="3586" spans="1:6">
+    <row r="3586" spans="1:3">
       <c r="A3586" t="s">
         <v>1148</v>
       </c>
@@ -53094,7 +53118,7 @@
         <v>56.978999999999999</v>
       </c>
     </row>
-    <row r="3587" spans="1:6">
+    <row r="3587" spans="1:3">
       <c r="A3587" t="s">
         <v>1082</v>
       </c>
@@ -53104,14 +53128,8 @@
       <c r="C3587">
         <v>58.019500000000001</v>
       </c>
-      <c r="E3587" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F3587">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="3588" spans="1:6">
+    </row>
+    <row r="3588" spans="1:3">
       <c r="A3588" t="s">
         <v>2029</v>
       </c>
@@ -53122,7 +53140,7 @@
         <v>56.536099999999998</v>
       </c>
     </row>
-    <row r="3589" spans="1:6">
+    <row r="3589" spans="1:3">
       <c r="A3589" t="s">
         <v>1260</v>
       </c>
@@ -53133,7 +53151,7 @@
         <v>58.707700000000003</v>
       </c>
     </row>
-    <row r="3590" spans="1:6">
+    <row r="3590" spans="1:3">
       <c r="A3590" t="s">
         <v>2981</v>
       </c>
@@ -53144,7 +53162,7 @@
         <v>55.991</v>
       </c>
     </row>
-    <row r="3591" spans="1:6">
+    <row r="3591" spans="1:3">
       <c r="A3591" t="s">
         <v>1954</v>
       </c>
@@ -53155,7 +53173,7 @@
         <v>54.996499999999997</v>
       </c>
     </row>
-    <row r="3592" spans="1:6">
+    <row r="3592" spans="1:3">
       <c r="A3592" t="s">
         <v>1911</v>
       </c>
@@ -53166,7 +53184,7 @@
         <v>55.912300000000002</v>
       </c>
     </row>
-    <row r="3593" spans="1:6">
+    <row r="3593" spans="1:3">
       <c r="A3593" t="s">
         <v>912</v>
       </c>
@@ -53177,7 +53195,7 @@
         <v>56.882300000000001</v>
       </c>
     </row>
-    <row r="3594" spans="1:6">
+    <row r="3594" spans="1:3">
       <c r="A3594" t="s">
         <v>3760</v>
       </c>
@@ -53188,7 +53206,7 @@
         <v>56.920400000000001</v>
       </c>
     </row>
-    <row r="3595" spans="1:6">
+    <row r="3595" spans="1:3">
       <c r="A3595" t="s">
         <v>719</v>
       </c>
@@ -53199,7 +53217,7 @@
         <v>52.710999999999999</v>
       </c>
     </row>
-    <row r="3596" spans="1:6">
+    <row r="3596" spans="1:3">
       <c r="A3596" t="s">
         <v>506</v>
       </c>
@@ -53210,7 +53228,7 @@
         <v>58.050400000000003</v>
       </c>
     </row>
-    <row r="3597" spans="1:6">
+    <row r="3597" spans="1:3">
       <c r="A3597" t="s">
         <v>913</v>
       </c>
@@ -53221,7 +53239,7 @@
         <v>56.888399999999997</v>
       </c>
     </row>
-    <row r="3598" spans="1:6">
+    <row r="3598" spans="1:3">
       <c r="A3598" t="s">
         <v>86</v>
       </c>
@@ -53232,7 +53250,7 @@
         <v>55.643500000000003</v>
       </c>
     </row>
-    <row r="3599" spans="1:6">
+    <row r="3599" spans="1:3">
       <c r="A3599" t="s">
         <v>1477</v>
       </c>
@@ -53243,7 +53261,7 @@
         <v>58.748699999999999</v>
       </c>
     </row>
-    <row r="3600" spans="1:6">
+    <row r="3600" spans="1:3">
       <c r="A3600" t="s">
         <v>1685</v>
       </c>
